--- a/Poblacion.xlsx
+++ b/Poblacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayelenhurtado/OneDrive - ITESO/Series de tiempo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EAC854-7908-6741-BD02-BA23481D28F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFDE35-A4D6-9E4C-81CF-FBF961334B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13820" xr2:uid="{708C0C6E-ABC5-224B-8CC6-94AF6B003FF1}"/>
   </bookViews>
@@ -36,67 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1980</t>
   </si>
@@ -582,20 +522,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D7B3B5-6AE1-7940-A8B6-6C27BD91EFAF}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="A21" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36268055</v>
+        <v>67705186</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37439317</v>
+        <v>69233769</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>38683283</v>
+        <v>70656783</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>39982118</v>
+        <v>72080310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41333878</v>
+        <v>73489654</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42737991</v>
+        <v>74872006</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44180437</v>
+        <v>76224365</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45656963</v>
+        <v>77553504</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>47170337</v>
+        <v>78892015</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>48714394</v>
+        <v>80233749</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50289306</v>
+        <v>81720428</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>51897675</v>
+        <v>83351595</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>53543436</v>
+        <v>84993164</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55228203</v>
+        <v>86648447</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56945880</v>
+        <v>88314424</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>58691882</v>
+        <v>89969572</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60452543</v>
+        <v>91586555</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>62262505</v>
+        <v>93183094</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>64123997</v>
+        <v>94767284</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>65972912</v>
+        <v>96334810</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>67705186</v>
+        <v>97873442</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69233769</v>
+        <v>99394288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +719,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>70656783</v>
+        <v>100917081</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72080310</v>
+        <v>102429341</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>73489654</v>
+        <v>103945813</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +743,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>74872006</v>
+        <v>105442402</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76224365</v>
+        <v>106886790</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>77553504</v>
+        <v>108302973</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +767,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>78892015</v>
+        <v>109684489</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -835,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80233749</v>
+        <v>111049428</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,7 +783,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>81720428</v>
+        <v>112532401</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>83351595</v>
+        <v>114150481</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,7 +799,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84993164</v>
+        <v>115755909</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -867,7 +807,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>86648447</v>
+        <v>117290686</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,7 +815,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>88314424</v>
+        <v>118755887</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +823,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>89969572</v>
+        <v>120149897</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +831,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>91586555</v>
+        <v>121519221</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +839,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>93183094</v>
+        <v>122839258</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,7 +847,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>94767284</v>
+        <v>124013861</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,7 +855,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>96334810</v>
+        <v>125085311</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>97873442</v>
+        <v>125998302</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +871,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>99394288</v>
+        <v>126705138</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,166 +879,6 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100917081</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>102429341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>103945813</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>105442402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>106886790</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>108302973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>109684489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>111049428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>112532401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>114150481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>115755909</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>117290686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>118755887</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>120149897</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>121519221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>122839258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>124013861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>125085311</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>125998302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>126705138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
         <v>127504125</v>
       </c>
     </row>
